--- a/Project - Uart_controller/De10_UART_controller.xlsx
+++ b/Project - Uart_controller/De10_UART_controller.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Simple_UART_controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Uart_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF6F1F9-D0BC-45C3-A4D5-F8A54F5E90F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FCCB6-FF75-4D1A-92D0-8439A1718C58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{8B4AF6FD-1216-4FEA-B286-4A054EDE5B68}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>1.</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>https://www.circuitbasics.com/basics-uart-communication/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wsou_zhCEYQ</t>
+  </si>
+  <si>
+    <t>3.</t>
   </si>
 </sst>
 </file>
@@ -788,146 +794,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>102219</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>144037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>306657</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130098</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="Group 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F11BBB4-2391-4B16-80D6-07AD2C08CE84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1934960" y="3954037"/>
-          <a:ext cx="815352" cy="1129061"/>
-          <a:chOff x="1988635" y="4000500"/>
-          <a:chExt cx="613316" cy="938561"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="Rectangle 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E11A15-ED40-4B6A-B710-B28C3293772F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1988635" y="4000500"/>
-            <a:ext cx="613316" cy="938561"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-MY" sz="1100"/>
-              <a:t>Baud Rate Generator</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="Isosceles Triangle 51">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738A20E0-0E5C-4810-B398-4F27B1B2BCE6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1974695" y="4595232"/>
-            <a:ext cx="226369" cy="195146"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-MY" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>240680</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1298,11 +1164,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>483220</xdr:colOff>
+      <xdr:colOff>105104</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>170055</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="676509" cy="264560"/>
+    <xdr:ext cx="1054626" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="TextBox 67">
@@ -1316,8 +1182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4135244" y="3599055"/>
-          <a:ext cx="676509" cy="264560"/>
+          <a:off x="3770587" y="3599055"/>
+          <a:ext cx="1054626" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,7 +1212,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>rx_done</a:t>
+            <a:t>data_available</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1471,216 +1337,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>483219</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>73414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>240680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>74342</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F4543B-03B3-41EB-8002-1C10A0104E59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="55" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2917902" y="3883414"/>
-          <a:ext cx="366132" cy="928"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>487866</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>487866</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Connector 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC9DD88-D1A9-4461-B2BC-6C842B6F2432}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2922549" y="3879695"/>
-          <a:ext cx="0" cy="1003610"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>505522</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>262983</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115229</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA90FA6-C1EB-49A5-BB0E-C232E1382381}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2940205" y="4876802"/>
-          <a:ext cx="366132" cy="927"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>311305</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>501805</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55756</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Straight Connector 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6A651E-811A-4887-8CFB-4858136BF3D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2745988" y="4437256"/>
-          <a:ext cx="190500" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>199792</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -2848,11 +2504,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>602167</xdr:colOff>
+      <xdr:colOff>98534</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>79915</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="531542" cy="264560"/>
+    <xdr:ext cx="1035175" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="TextBox 122">
@@ -2866,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4254191" y="5032915"/>
-          <a:ext cx="531542" cy="264560"/>
+          <a:off x="3764017" y="5223415"/>
+          <a:ext cx="1035175" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2896,7 +2552,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>tx_go</a:t>
+            <a:t>data_available</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4651,8 +4307,8 @@
       <xdr:rowOff>26276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91965</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26276</xdr:rowOff>
     </xdr:to>
@@ -4670,7 +4326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1188983" y="4788776"/>
-          <a:ext cx="735723" cy="0"/>
+          <a:ext cx="1872155" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4700,8 +4356,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295603</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>86710</xdr:rowOff>
     </xdr:from>
@@ -4709,7 +4365,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>237795</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>86710</xdr:rowOff>
+      <xdr:rowOff>91966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4723,9 +4379,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1517431" y="5611210"/>
-          <a:ext cx="1774933" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3074276" y="5611210"/>
+          <a:ext cx="218088" cy="5256"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5166,61 +4822,6 @@
         <a:xfrm>
           <a:off x="5127737" y="4198883"/>
           <a:ext cx="0" cy="366548"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="F117D2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>294292</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28904</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>294292</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>65690</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="190" name="Straight Connector 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319C5FB6-302A-4FA4-98E2-036AC9383197}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1516120" y="4791404"/>
-          <a:ext cx="0" cy="798786"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5622,7 +5223,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,7 +5239,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,13 +5264,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{960063BA-F99D-4CAF-B621-E727AE01726F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A68908B6-3565-4819-A150-681FF468015D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Project - Uart_controller/De10_UART_controller.xlsx
+++ b/Project - Uart_controller/De10_UART_controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Uart_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FCCB6-FF75-4D1A-92D0-8439A1718C58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA0411-F497-4D03-9B10-C77DACD81EE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{8B4AF6FD-1216-4FEA-B286-4A054EDE5B68}"/>
   </bookViews>
@@ -647,7 +647,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>14868</xdr:rowOff>
+      <xdr:rowOff>177362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -663,7 +663,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1681814" y="2836078"/>
-          <a:ext cx="5609737" cy="3084290"/>
+          <a:ext cx="5609737" cy="3246784"/>
           <a:chOff x="1626147" y="240820"/>
           <a:chExt cx="1727966" cy="1854680"/>
         </a:xfrm>
@@ -991,8 +991,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>258337</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>89211</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1007,8 +1007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5260588" y="4675150"/>
-          <a:ext cx="1084456" cy="938561"/>
+          <a:off x="5889446" y="4865650"/>
+          <a:ext cx="1088943" cy="1118678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,9 +1878,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>78058</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>126379</xdr:rowOff>
+      <xdr:colOff>84627</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="648629" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1896,7 +1896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5556095" y="3936379"/>
+          <a:off x="6193765" y="3463414"/>
           <a:ext cx="648629" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2678,9 +2678,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>146824</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106864</xdr:rowOff>
+      <xdr:colOff>100841</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179123</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="648629" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2696,7 +2696,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5624861" y="5250364"/>
+          <a:off x="6209979" y="4941623"/>
           <a:ext cx="648629" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2740,7 +2740,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>75269</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="611325" cy="264560"/>
+    <xdr:ext cx="839702" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="TextBox 126">
@@ -2754,8 +2754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5861957" y="5218769"/>
-          <a:ext cx="611325" cy="264560"/>
+          <a:off x="5873781" y="5218769"/>
+          <a:ext cx="839702" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2784,7 +2784,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>empty</a:t>
+            <a:t>data_ready</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3124,7 +3124,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526381</xdr:colOff>
+      <xdr:colOff>526382</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>17049</xdr:rowOff>
     </xdr:from>
@@ -3132,7 +3132,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>375557</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>17049</xdr:rowOff>
+      <xdr:rowOff>17050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3149,8 +3149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4793581" y="5351049"/>
-          <a:ext cx="1068376" cy="0"/>
+          <a:off x="4802779" y="5351049"/>
+          <a:ext cx="1071002" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3177,142 +3177,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600307</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>89210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>218005</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>157427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="Isosceles Triangle 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD429862-CED6-4AC7-B417-A15221CD0CC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="4844828" y="5058384"/>
-          <a:ext cx="258717" cy="226369"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>497158</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>576146</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>60403</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="Oval 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFAAF64-ECDD-4F21-A874-A7AE6F2D672D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4757853" y="5124915"/>
-          <a:ext cx="78988" cy="78988"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4920,6 +4784,288 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357163</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="877802" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B3FA01-F16B-4C41-A9F0-F37810C3C0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5855387" y="5673340"/>
+          <a:ext cx="877802" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>empty</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>413845</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>385033</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B68AB82-4DEC-4458-BF44-8B6D97B4C657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5301155" y="5820105"/>
+          <a:ext cx="582102" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423137</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423137</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01113CC2-A71B-4808-BC11-25FA938759F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310447" y="5830934"/>
+          <a:ext cx="0" cy="543621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0989B6-0967-4DD8-82D4-1E46C252174A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5319740" y="6379202"/>
+          <a:ext cx="3095105" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446690</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270314" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AA9190-0D88-4B6A-A828-28E4A890053D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8388569" y="6220810"/>
+          <a:ext cx="1270314" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>tx_empty</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5223,7 +5369,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
